--- a/Data/树/机器学习特征树.xlsx
+++ b/Data/树/机器学习特征树.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1523F7-3498-4621-96F4-7A430E32BD60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FCAC4-B9F4-41ED-BA80-1B36D508CFC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7152" yWindow="876" windowWidth="20760" windowHeight="16752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Descriptors</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>composition</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -614,6 +610,10 @@
   </si>
   <si>
     <t>The temperature of the structure is measured</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeatureRoot</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A119"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1056,19 +1058,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,7 +1079,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,7 +1088,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,7 +1097,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,7 +1106,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,7 +1115,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1122,7 +1124,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1133,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1140,7 +1142,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1149,7 +1151,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,7 +1160,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,7 +1169,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,7 +1178,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,7 +1187,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1194,7 +1196,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,7 +1205,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,7 +1214,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,7 +1223,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,7 +1232,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,7 +1241,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,10 +1249,10 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
         <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,7 +1261,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,7 +1270,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,7 +1279,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1286,7 +1288,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,7 +1297,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1304,7 +1306,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,7 +1315,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,7 +1324,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,7 +1333,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1340,7 +1342,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,7 +1351,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,7 +1360,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1367,7 +1369,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,7 +1378,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,7 +1387,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,7 +1396,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,7 +1405,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,7 +1414,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1420,10 +1422,10 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
         <v>50</v>
-      </c>
-      <c r="E41" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,7 +1434,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,7 +1443,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,7 +1452,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1459,7 +1461,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,7 +1470,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,7 +1479,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,10 +1487,10 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
         <v>58</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,7 +1499,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1506,7 +1508,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,7 +1517,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1524,7 +1526,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1533,7 +1535,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,7 +1544,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,7 +1553,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1560,7 +1562,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,7 +1571,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1578,7 +1580,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,20 +1589,20 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" t="s">
         <v>72</v>
-      </c>
-      <c r="E60" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,7 +1611,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1618,7 +1620,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1627,7 +1629,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,7 +1638,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1644,10 +1646,10 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
         <v>78</v>
-      </c>
-      <c r="E65" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,7 +1658,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,7 +1667,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1676,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1683,7 +1685,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,7 +1694,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1701,7 +1703,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1710,20 +1712,20 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" t="s">
         <v>88</v>
-      </c>
-      <c r="E73" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,7 +1734,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1741,7 +1743,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,20 +1751,20 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" t="s">
         <v>94</v>
-      </c>
-      <c r="E77" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1771,7 +1773,7 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,10 +1781,10 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,22 +1793,22 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" t="s">
         <v>101</v>
-      </c>
-      <c r="E81" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,7 +1817,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,7 +1826,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,7 +1835,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,7 +1844,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,7 +1853,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,7 +1862,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,7 +1871,7 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,7 +1880,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,7 +1889,7 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1896,7 +1898,7 @@
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,10 +1906,10 @@
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" t="s">
         <v>113</v>
-      </c>
-      <c r="E92" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -1916,7 +1918,7 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,7 +1927,7 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,7 +1936,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,7 +1945,7 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,20 +1954,20 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" t="s">
         <v>121</v>
-      </c>
-      <c r="E98" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -1974,7 +1976,7 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,7 +1985,7 @@
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,7 +1994,7 @@
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,7 +2003,7 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2010,7 +2012,7 @@
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,10 +2020,10 @@
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2030,7 +2032,7 @@
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,7 +2041,7 @@
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,7 +2050,7 @@
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,7 +2059,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,7 +2068,7 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,13 +2076,13 @@
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" t="s">
         <v>135</v>
-      </c>
-      <c r="F110" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,7 +2092,7 @@
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,7 +2102,7 @@
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,7 +2112,7 @@
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2120,7 +2122,7 @@
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,10 +2130,10 @@
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" t="s">
         <v>141</v>
-      </c>
-      <c r="E115" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2140,7 +2142,7 @@
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,41 +2151,32 @@
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" t="s">
         <v>145</v>
-      </c>
-      <c r="C118" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" t="s">
         <v>147</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>148</v>
-      </c>
-      <c r="D119" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:A119"/>
-    <mergeCell ref="B2:B80"/>
-    <mergeCell ref="B81:B117"/>
-    <mergeCell ref="C2:C59"/>
-    <mergeCell ref="C60:C72"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C97"/>
-    <mergeCell ref="C98:C117"/>
     <mergeCell ref="E110:E114"/>
     <mergeCell ref="D104:D109"/>
     <mergeCell ref="D110:D114"/>
@@ -2200,9 +2193,18 @@
     <mergeCell ref="D81:D91"/>
     <mergeCell ref="D92:D97"/>
     <mergeCell ref="D98:D103"/>
+    <mergeCell ref="A2:A119"/>
+    <mergeCell ref="B2:B80"/>
+    <mergeCell ref="B81:B117"/>
+    <mergeCell ref="C2:C59"/>
+    <mergeCell ref="C60:C72"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C81:C97"/>
+    <mergeCell ref="C98:C117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>